--- a/public/informes/1131/1131 2021-06-22.xlsx
+++ b/public/informes/1131/1131 2021-06-22.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.12\samba-share\CARPETA COMÚ\INFORMES MOTLLES\Terminados\1131\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.26.0.13\CompartidaFabrica\INFORMES MOTLLES\Terminados\1131EXTERIOR TARRO 200ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7935"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="MOLDE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>DENOMINACIÓ</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Injeccio: Fa saltar termics la C.C.</t>
   </si>
   <si>
-    <t>07/06/2021 Taller.- Solo parte injeccio.</t>
-  </si>
-  <si>
     <t>Comprobar conexionado, desmontar placa portavasos.-Taladrar tornillos pasados.- extraer plastico en zonas C.C..-quitar golpes a placas, pasar por la cuba placa portavasos.-encintar y proteger cableado, cambiar tornilleria. -Comprobar refrigeracion y montar placa portavasos. Pieza D anulada por rotura en la lenteja del punto de inyeccion, No tiene placa aislante.</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>INTERN</t>
-  </si>
-  <si>
-    <t>21/06/2021 de Injeccio a Cornella</t>
   </si>
 </sst>
 </file>
@@ -266,6 +260,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -285,9 +282,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -327,7 +321,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -629,8 +623,8 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="5" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,35 +639,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20"/>
-      <c r="B1" s="20"/>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="21">
+      <c r="D1" s="20"/>
+      <c r="E1" s="22">
         <v>485</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="24"/>
+      <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>1131</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="25"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
@@ -703,28 +697,28 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
-      <c r="B6" s="18" t="s">
-        <v>12</v>
+      <c r="B6" s="18">
+        <v>44354</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>16</v>
+      <c r="A7" s="18">
+        <v>44368</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="26" t="s">
-        <v>14</v>
+      <c r="C7" s="19" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="15"/>
